--- a/Taller 2 Ej 5.xlsx
+++ b/Taller 2 Ej 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Investigacion de operaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B26938C-666F-438E-94DA-2A26E7443EF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D81827-6B96-4D1D-812C-A2E4675196B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="156">
   <si>
     <t>FUNCION OBJETIVO</t>
   </si>
@@ -646,70 +646,88 @@
     <t>X</t>
   </si>
   <si>
-    <t>Bj (original)</t>
-  </si>
-  <si>
     <t>Bj</t>
   </si>
   <si>
     <t>=</t>
   </si>
   <si>
-    <t>Recurso 1</t>
-  </si>
-  <si>
-    <t>12 + D</t>
-  </si>
-  <si>
-    <t>0,25*(12+D) +1 &gt;= 0</t>
-  </si>
-  <si>
-    <t>-0,25*(12+D) -3  &gt;= 0</t>
-  </si>
-  <si>
-    <t>0,25*(12+D)  &gt;= -1</t>
-  </si>
-  <si>
-    <t>3 +0,25D &gt;= -2</t>
-  </si>
-  <si>
-    <t>D &gt;= -20</t>
-  </si>
-  <si>
-    <t>-0,25*(12+D)  &gt;= 3</t>
-  </si>
-  <si>
-    <t>-3-0,25D  &gt;= 4</t>
-  </si>
-  <si>
-    <t>-0,25D  &gt;= 7</t>
-  </si>
-  <si>
-    <t>D  &lt;= -28</t>
-  </si>
-  <si>
-    <t>-0,25D &lt;= 5</t>
-  </si>
-  <si>
-    <t>1/4*(12+D) +1</t>
-  </si>
-  <si>
-    <t>-1/4*(12+D) -3</t>
-  </si>
-  <si>
-    <t>1/4*(12+D) +1 &gt;= 0</t>
-  </si>
-  <si>
-    <t>1/4*(12+D) &gt;= -1</t>
-  </si>
-  <si>
-    <t>3+D/4 &gt;= -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D/4 &gt;= -4</t>
-  </si>
-  <si>
-    <t>D &gt;=  -16</t>
+    <t>Bj original</t>
+  </si>
+  <si>
+    <t>Bj Final</t>
+  </si>
+  <si>
+    <t>2 + D</t>
+  </si>
+  <si>
+    <t>1,5 + 0,5( 2+D )</t>
+  </si>
+  <si>
+    <t>-1,5 -1,5( 2+D )</t>
+  </si>
+  <si>
+    <t>2,5 + 0,5D</t>
+  </si>
+  <si>
+    <t>-4,5 - 1,5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,5 + 0,5D &gt;= 0 </t>
+  </si>
+  <si>
+    <t>D &gt;= -5</t>
+  </si>
+  <si>
+    <t>-4,5 - 1,5D &gt;= 0</t>
+  </si>
+  <si>
+    <t>D &lt;= -3</t>
+  </si>
+  <si>
+    <t>[(2-5) , (2-3)]</t>
+  </si>
+  <si>
+    <t>[(-3) , (-1)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio sombra 2,5 y 3, por cada unidad que se aumenta en la restriccion 1,dias disponibles en la zona de instalacion se contribuyen 2, 5 unidades adicionales a la funcion objetivo y por cada unidad que se aumenta en la restriccion 2, compromiso minimo de pales a entregar, se contribuye en 3 unidades adicionales a la funcion objetivo </t>
+  </si>
+  <si>
+    <t>El recurso de la restriccion 2 puede variar entre -3 y -1</t>
+  </si>
+  <si>
+    <t>6 +D</t>
+  </si>
+  <si>
+    <t>0,25( 6+D ) + 1</t>
+  </si>
+  <si>
+    <t>-0,25( 6+D ) - 3</t>
+  </si>
+  <si>
+    <t>2,5 + 0,25D</t>
+  </si>
+  <si>
+    <t>-4,5 -0,25D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,5 + 0,25D &gt;= 0 </t>
+  </si>
+  <si>
+    <t>-4,5 -0,25D &gt;= 0</t>
+  </si>
+  <si>
+    <t>D &gt;= -10</t>
+  </si>
+  <si>
+    <t>D &lt;= -18</t>
+  </si>
+  <si>
+    <t>[(2-10) , (2-18)]</t>
+  </si>
+  <si>
+    <t>[(-8) , (-16)]</t>
   </si>
 </sst>
 </file>
@@ -850,15 +868,14 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -933,12 +950,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1253,19 +1270,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1600,21 +1604,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1739,11 +1728,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1798,25 +1859,25 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1825,58 +1886,106 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1885,6 +1994,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1892,9 +2004,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1919,147 +2028,127 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="60" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="62" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="60" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2089,8 +2178,8 @@
       <xdr:rowOff>125599</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1379788" cy="185864"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -2132,7 +2221,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-MX" sz="1100" b="0"/>
                 <a:t>3</a:t>
@@ -2185,7 +2273,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -2257,8 +2345,8 @@
       <xdr:rowOff>116169</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1139305" cy="185864"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
@@ -2300,7 +2388,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -2349,7 +2436,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
@@ -2409,511 +2496,92 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>306737</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1025770</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>837726</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80719</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Conector recto 36">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602A24A4-1F53-45BF-AB20-62B3221FBCB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C29A1A-196F-495C-8D5C-0559E3ABDD95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4997694" y="7292079"/>
-          <a:ext cx="3444550" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361787</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>121057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>58127</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>82957</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Abrir corchete 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9B9E70-CFC1-49D8-AD81-1E8F1F817931}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5197556" y="6642019"/>
-          <a:ext cx="95250" cy="1394720"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBracket">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>251068</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30819</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>236090</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>92481</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CuadroTexto 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFAD1CD-857F-42F1-AADA-BB6C3A0BFECF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5086837" y="7374024"/>
-          <a:ext cx="383932" cy="265188"/>
+          <a:off x="2139089" y="5739214"/>
+          <a:ext cx="7432578" cy="1420679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>-28</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>867426</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>81573</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>508538</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>48433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1048401</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100623</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>615089</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>105744</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Flecha: cheurón 41">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB8F17A-87CF-4F5A-B5D7-AB24D47934D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46770539-1F29-4BD9-A404-7476715F680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8283900" y="7009586"/>
-          <a:ext cx="180975" cy="230716"/>
-        </a:xfrm>
-        <a:prstGeom prst="chevron">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>354542</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>122441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>79457</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>84341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Abrir corchete 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3E05D2-A502-4108-97B1-C1D162FBA40B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6281209" y="6643403"/>
-          <a:ext cx="123825" cy="1394720"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBracket">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>204665</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30819</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>211666</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>92481</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CuadroTexto 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB8A433-EB78-4A53-B713-411A5C0E7844}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6131332" y="7374024"/>
-          <a:ext cx="405911" cy="265188"/>
+          <a:off x="5537415" y="1041293"/>
+          <a:ext cx="2762250" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>-20</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>159157</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>65291</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>340132</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>84341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Flecha: cheurón 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FD34DC-946F-4A58-8A06-363A20A6C5C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4994926" y="6993304"/>
-          <a:ext cx="180975" cy="230716"/>
-        </a:xfrm>
-        <a:prstGeom prst="chevron">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>595435</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1001346</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>108763</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CuadroTexto 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D076AD-A8B6-4F23-ADA0-E1D43C78D315}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8011909" y="7390306"/>
-          <a:ext cx="405911" cy="265188"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4089,7 +3757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D15C44-00A9-4625-BB04-69EDD44DD49A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4166,16 +3836,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4199,19 +3869,19 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="82" t="s">
+      <c r="E20" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="82" t="s">
+      <c r="F20" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4272,22 +3942,22 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="82" t="s">
+      <c r="F27" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="82" t="s">
+      <c r="G27" s="49" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4341,7 +4011,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4377,44 +4047,44 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="51" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4493,44 +4163,44 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="51" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4590,7 +4260,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4624,20 +4294,20 @@
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="83"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="51" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4654,44 +4324,44 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="83"/>
-      <c r="C11" s="83" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="F11" s="83" t="s">
+      <c r="D11" s="50"/>
+      <c r="F11" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="83" t="s">
+      <c r="J11" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="51" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4771,10 +4441,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1002"/>
+  <dimension ref="A1:S1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4782,26 +4452,26 @@
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="3.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="4" max="4" width="2.5" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
-    <col min="7" max="7" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="5.25" customWidth="1"/>
-    <col min="11" max="11" width="5.75" customWidth="1"/>
-    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="2.125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.375" customWidth="1"/>
     <col min="14" max="14" width="20.125" customWidth="1"/>
     <col min="15" max="25" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="30"/>
       <c r="E1" s="33" t="s">
         <v>0</v>
@@ -4814,36 +4484,36 @@
       </c>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="E2" s="65" t="s">
+      <c r="C2" s="84"/>
+      <c r="E2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="70"/>
-      <c r="I2" s="62" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="80"/>
+      <c r="I2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="84"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="81"/>
       <c r="I3" s="35">
         <f>3*$A$11 + 6*$B$11 +2*$C$11</f>
         <v>5.9999999999999982</v>
@@ -4855,7 +4525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -4863,9 +4533,9 @@
         <v>96</v>
       </c>
       <c r="C4" s="88"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="71"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="81"/>
       <c r="I4" s="37">
         <f>$A$11 + $B$11 + $C$11</f>
         <v>1.9999999999999996</v>
@@ -4877,13 +4547,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="E5" s="67"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="72"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="48" t="s">
+    <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E5" s="77"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E6" s="47" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="12">
@@ -4891,18 +4566,29 @@
         <v>8.9999999999999982</v>
       </c>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+    </row>
+    <row r="8" spans="1:19" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="86"/>
       <c r="E9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="65" t="s">
         <v>77</v>
       </c>
       <c r="G9" s="41">
@@ -4917,14 +4603,14 @@
       <c r="J9" s="41">
         <v>0</v>
       </c>
-      <c r="K9" s="92">
+      <c r="K9" s="55">
         <v>0</v>
       </c>
-      <c r="L9" s="97" t="s">
+      <c r="L9" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>1</v>
       </c>
@@ -4937,7 +4623,7 @@
       <c r="E10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="24" t="s">
         <v>78</v>
       </c>
@@ -4953,11 +4639,12 @@
       <c r="K10" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="119"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>0</v>
       </c>
@@ -4982,17 +4669,17 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="101" t="s">
+      <c r="J11" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="102" t="s">
+      <c r="K11" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="99">
+      <c r="L11" s="96">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E12" s="44" t="s">
         <v>113</v>
       </c>
@@ -5008,44 +4695,54 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="101" t="s">
+      <c r="J12" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="100">
+      <c r="L12" s="97">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89" t="s">
+    <row r="13" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="95">
+      <c r="H13" s="58">
         <v>12</v>
       </c>
-      <c r="I13" s="95">
+      <c r="I13" s="58">
         <v>2</v>
       </c>
-      <c r="J13" s="95" t="s">
+      <c r="J13" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="96">
+      <c r="K13" s="111">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
+      <c r="L13" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="114"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53" t="s">
         <v>123</v>
       </c>
       <c r="F14" s="45" t="s">
@@ -5063,306 +4760,465 @@
       <c r="J14" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="112">
         <v>-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90" t="s">
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="115"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="L15" s="116"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="118"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
-    </row>
-    <row r="18" spans="5:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="113"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E18" s="24" t="s">
         <v>80</v>
       </c>
       <c r="F18" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="103" t="s">
+      <c r="G18" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="K18" s="105" t="s">
+      <c r="H18" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="M18" s="104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="5:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="121">
+      <c r="I18" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E19" s="61">
         <v>0.25</v>
       </c>
-      <c r="F19" s="121">
+      <c r="F19" s="62">
         <v>0.5</v>
       </c>
-      <c r="H19" s="103"/>
-      <c r="I19" s="99">
-        <v>12</v>
-      </c>
-      <c r="K19" s="105"/>
-      <c r="M19" s="99">
-        <f>E19*$I$19 + F19*$I$20</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="122">
+      <c r="G19" s="89"/>
+      <c r="H19" s="91">
+        <v>6</v>
+      </c>
+      <c r="I19" s="92"/>
+      <c r="J19" s="91">
+        <f>E19*$H$19+F19*$H$20</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="61">
         <v>-0.25</v>
       </c>
-      <c r="F20" s="123">
+      <c r="F20" s="62">
         <v>-1.5</v>
       </c>
-      <c r="H20" s="103"/>
-      <c r="I20" s="100">
+      <c r="G20" s="89"/>
+      <c r="H20" s="91">
         <v>2</v>
       </c>
-      <c r="K20" s="105"/>
-      <c r="M20" s="99">
-        <f>E20*$I$19 + F20*$I$20</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="21" spans="5:16" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="106" t="s">
+      <c r="I20" s="92"/>
+      <c r="J20" s="91">
+        <f>E20*$H$19+F20*$H$20</f>
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E22" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="90" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="23" spans="5:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="5:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="24" t="s">
+      <c r="K22" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E23" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="89"/>
+      <c r="H23" s="91">
+        <v>6</v>
+      </c>
+      <c r="I23" s="92"/>
+      <c r="J23" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="92"/>
+      <c r="L23" s="98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E24" s="61">
+        <v>-0.25</v>
+      </c>
+      <c r="F24" s="62">
+        <v>-1.5</v>
+      </c>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="92"/>
+      <c r="J24" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="92"/>
+      <c r="L24" s="99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="121"/>
+    </row>
+    <row r="27" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="122"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="124"/>
+    </row>
+    <row r="28" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+    </row>
+    <row r="30" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+    </row>
+    <row r="31" spans="5:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+    </row>
+    <row r="32" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+    </row>
+    <row r="33" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+    </row>
+    <row r="34" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+    </row>
+    <row r="35" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+    </row>
+    <row r="36" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+    </row>
+    <row r="37" spans="5:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="5:13" s="104" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F40" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="103" t="s">
+      <c r="G40" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="I24" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="K24" s="105" t="s">
+      <c r="H40" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="M24" s="104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="121">
+      <c r="I40" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="61">
         <v>0.25</v>
       </c>
-      <c r="F25" s="121">
+      <c r="F41" s="62">
         <v>0.5</v>
       </c>
-      <c r="H25" s="103"/>
-      <c r="I25" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" s="105"/>
-      <c r="M25" s="99" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="5:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="122">
+      <c r="G41" s="89"/>
+      <c r="H41" s="91">
+        <v>6</v>
+      </c>
+      <c r="I41" s="92"/>
+      <c r="J41" s="91">
+        <f>E41*$H$19+F41*$H$20</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="61">
         <v>-0.25</v>
       </c>
-      <c r="F26" s="123">
+      <c r="F42" s="62">
         <v>-1.5</v>
       </c>
-      <c r="H26" s="103"/>
-      <c r="I26" s="100">
+      <c r="G42" s="89"/>
+      <c r="H42" s="91">
         <v>2</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="M26" s="107" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="5:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="108" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="109"/>
-      <c r="O28" s="108" t="s">
+      <c r="I42" s="92"/>
+      <c r="J42" s="91">
+        <f>E42*$H$19+F42*$H$20</f>
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="J44" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="L44" s="90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="F45" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="89"/>
+      <c r="H45" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="109"/>
-    </row>
-    <row r="29" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="109"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="51"/>
-      <c r="O29" s="108" t="s">
+      <c r="I45" s="92"/>
+      <c r="J45" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="P29" s="109"/>
-    </row>
-    <row r="30" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="109"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="118"/>
-      <c r="O30" s="108" t="s">
+      <c r="K45" s="92"/>
+      <c r="L45" s="98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="61">
+        <v>-0.25</v>
+      </c>
+      <c r="F46" s="62">
+        <v>-1.5</v>
+      </c>
+      <c r="G46" s="89"/>
+      <c r="H46" s="91">
+        <v>2</v>
+      </c>
+      <c r="I46" s="92"/>
+      <c r="J46" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="P30" s="109"/>
-    </row>
-    <row r="31" spans="5:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="109"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="118"/>
-      <c r="O31" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="P31" s="109"/>
-    </row>
-    <row r="32" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="112" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="113"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="118"/>
-      <c r="O32" s="112" t="s">
+      <c r="K46" s="92"/>
+      <c r="L46" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="P32" s="113"/>
-    </row>
-    <row r="33" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H33" s="120"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="118"/>
-    </row>
-    <row r="34" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="111"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="118"/>
-    </row>
-    <row r="35" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="110" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="111"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="118"/>
-    </row>
-    <row r="36" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="111"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="54"/>
-    </row>
-    <row r="37" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="F37" s="111"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="57"/>
-    </row>
-    <row r="38" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="114" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="115"/>
-    </row>
-    <row r="39" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
     <row r="47" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="58" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" s="48" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+    </row>
+    <row r="50" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6302,26 +6158,14 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="E28:F28"/>
+  <mergeCells count="24">
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L13:S15"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="I22:I24"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E16:L16"/>
@@ -6334,6 +6178,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="K44:K46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
